--- a/event study/MDD/NEW MDD result.xlsx
+++ b/event study/MDD/NEW MDD result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.05404870640986646</v>
+        <v>-0.04023889837635582</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0765433265876706</v>
+        <v>-0.05258262722116647</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03321686175043742</v>
+        <v>-0.02824054411865345</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00640175765594489</v>
+        <v>-0.01182530763037198</v>
       </c>
     </row>
     <row r="3">
@@ -492,21 +492,21 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.06680739954362183</v>
+        <v>-0.04536300885551248</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08080364021807132</v>
+        <v>-0.06036748190855526</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0391934170349178</v>
+        <v>-0.03081965668438114</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.008479571166622402</v>
+        <v>-0.01237647748697385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.112541937834751</v>
+        <v>-0.06258355026465572</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1668191814998524</v>
+        <v>-0.09387532539698357</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1314499753952566</v>
+        <v>-0.05811267953413723</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06771871294990245</v>
+        <v>-0.02905633976706862</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.04309465908139998</v>
+        <v>-0.037657047753965</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.08247422975179813</v>
+        <v>-0.03301354154257458</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.021000100652729</v>
+        <v>-0.01849790562235737</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002582336863501761</v>
+        <v>-0.01651180939540631</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.05912258034410086</v>
+        <v>-0.04392839503618507</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.08154466396029009</v>
+        <v>-0.06095575958225891</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03894945130689098</v>
+        <v>-0.02793755678617071</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003088621806720926</v>
+        <v>-0.01174332119371674</v>
       </c>
     </row>
     <row r="7">
@@ -580,566 +580,500 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.05990757157811165</v>
+        <v>-0.05221687506975486</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.08884306936244479</v>
+        <v>-0.07044863429378967</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03419277548592736</v>
+        <v>-0.0347526279610213</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-0.01444458873015508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.02101</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.3123011745869163</v>
+        <v>-0.04240094118261825</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3123011745869163</v>
+        <v>-0.05487527595989627</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3123011745869163</v>
+        <v>-0.02833017389345216</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3123011745869163</v>
+        <v>-0.01194314054275111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2.02104</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.03788418453482434</v>
+        <v>-0.03989359736604521</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03788418453482434</v>
+        <v>-0.05262304056693001</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03788418453482434</v>
+        <v>-0.03238867627597553</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03788418453482434</v>
+        <v>-0.0134298858000742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.05614515033584084</v>
+        <v>-0.05342900609504612</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.07662405879168946</v>
+        <v>-0.06295668293303305</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03458315449821331</v>
+        <v>-0.03423778650535808</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.00749603921756517</v>
+        <v>-0.01842239747759472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.05245682559796405</v>
+        <v>-0.0372496032606786</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07574667350197928</v>
+        <v>-0.05409960293753147</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.05103445895693026</v>
+        <v>-0.03040095034289098</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01595595710289832</v>
+        <v>-0.02228557946227785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.07019741437976103</v>
+        <v>-0.04452494436538759</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.09432989181594043</v>
+        <v>-0.04469619365335731</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03324980800834065</v>
+        <v>-0.029922943329178</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.007366837214623889</v>
+        <v>-0.01580392549889093</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.03744691870212667</v>
+        <v>-0.05058136804590647</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04659155899250503</v>
+        <v>-0.06905333393529642</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0274823532803643</v>
+        <v>-0.0327306671410616</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005228471143909535</v>
+        <v>-0.01774775136558418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.05016878272060329</v>
+        <v>-0.04302680080899141</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06638430231366255</v>
+        <v>-0.05887271639277383</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03697594192892217</v>
+        <v>-0.03206128085546639</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.001919998168945281</v>
+        <v>-0.01145378852216025</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.06456041445423286</v>
+        <v>-0.03262925473753774</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08441002583199619</v>
+        <v>-0.03917535579972142</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03939380975577195</v>
+        <v>-0.02620670135281811</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01017681731471751</v>
+        <v>-0.008872499559139324</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.054794121407188</v>
+        <v>-0.05706250356674638</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.08657563271260105</v>
+        <v>-0.07690070890728315</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.03535363413193732</v>
+        <v>-0.04932084768217671</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0046250311422327</v>
+        <v>-0.01895157071030645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.04332094955965381</v>
+        <v>-0.04553823273846332</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0674062661348242</v>
+        <v>-0.0637797140776365</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.026315817778224</v>
+        <v>-0.03949275860589119</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.003717677798290353</v>
+        <v>-0.004959558862238866</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.06366669336353069</v>
+        <v>-0.04303748418216414</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0745222917437913</v>
+        <v>-0.055966097470007</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04440254486830608</v>
+        <v>-0.02906168574984974</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01291980204283635</v>
+        <v>-0.01299509471017146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1017074177081685</v>
+        <v>-0.04494484505124056</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1833333114495027</v>
+        <v>-0.05998976141331736</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.05546875215368341</v>
+        <v>-0.03030290706352068</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-0.01348318265910309</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.06015743682287256</v>
+        <v>-0.03422195587676202</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.08353263305872086</v>
+        <v>-0.04047312932801689</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.03764286475195278</v>
+        <v>-0.01888938731312245</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.008511403147415469</v>
+        <v>-0.006639154308504702</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.05895809468989787</v>
+        <v>-0.02981195188287609</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.08699993181839527</v>
+        <v>-0.03707235726199729</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0343977668840898</v>
+        <v>-0.02960094970853261</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.004738670224392116</v>
+        <v>-0.01021922338630024</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.05301401049273039</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.05694204113289963</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.04038357303529716</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01086660211906912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.06148904281483096</v>
+        <v>-0.03841797169947828</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.09803342618387204</v>
+        <v>-0.05257500144629912</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.06461953380251673</v>
+        <v>-0.02716465168352533</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01004076743277371</v>
+        <v>-0.01158569767438078</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-0.02623022739186319</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-0.02537525672439106</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.02304156174052152</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-0.01943841920138906</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.04941725399362565</v>
+        <v>-0.08762041325949654</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.07161421601735385</v>
+        <v>-0.08762041325949654</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.03106620960248796</v>
+        <v>-0.08762041325949654</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00450195685247029</v>
+        <v>-0.08762041325949654</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.04648323967207165</v>
+        <v>-0.04429665148325913</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.07522346972093941</v>
+        <v>-0.05661853463109037</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01417318427288816</v>
+        <v>-0.02886049939256335</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.004093605084032115</v>
+        <v>-0.01269508562848687</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.08471228132146869</v>
+        <v>-0.04214759514016512</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.08471228132146869</v>
+        <v>-0.05382681136162337</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.08471228132146869</v>
+        <v>-0.02815435198665206</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.08471228132146869</v>
+        <v>-0.01149774829370409</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.05773924820766379</v>
+        <v>-0.04587288979694074</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.07966558878728444</v>
+        <v>-0.05997691571174299</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.03440811149060036</v>
+        <v>-0.03019209489769187</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.004631385135298705</v>
+        <v>-0.01292075989337724</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7.01104</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.007164540410244502</v>
+        <v>-0.01020144967517961</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.007164540410244502</v>
+        <v>-0.01530217451276941</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.007164540410244502</v>
+        <v>-0.01020144967517961</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.007164540410244502</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.05390765707555285</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-0.07581958440451031</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.03110746134870457</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-0.003397232143748319</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.05731823934488351</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-0.08120847351371377</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.03348982577073162</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-0.003423184088389875</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.06802173800992212</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-0.08576683522566245</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.06802173800992212</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.05027664079418179</v>
+        <v>-0.005100724837589804</v>
       </c>
     </row>
   </sheetData>
